--- a/natmiOut/OldD0/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.72753633195909</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H2">
-        <v>5.72753633195909</v>
+        <v>19.318993</v>
       </c>
       <c r="I2">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="J2">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>605.8632067324376</v>
+        <v>753.7276977616864</v>
       </c>
       <c r="R2">
-        <v>605.8632067324376</v>
+        <v>6783.549279855178</v>
       </c>
       <c r="S2">
-        <v>0.2680382240144323</v>
+        <v>0.2875875699114926</v>
       </c>
       <c r="T2">
-        <v>0.2680382240144323</v>
+        <v>0.2875875699114926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.72753633195909</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H3">
-        <v>5.72753633195909</v>
+        <v>19.318993</v>
       </c>
       <c r="I3">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="J3">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>581.2949124383019</v>
+        <v>654.1413433941352</v>
       </c>
       <c r="R3">
-        <v>581.2949124383019</v>
+        <v>5887.272090547217</v>
       </c>
       <c r="S3">
-        <v>0.2571690345728423</v>
+        <v>0.2495900308347687</v>
       </c>
       <c r="T3">
-        <v>0.2571690345728423</v>
+        <v>0.2495900308347687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.72753633195909</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H4">
-        <v>5.72753633195909</v>
+        <v>19.318993</v>
       </c>
       <c r="I4">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="J4">
-        <v>0.8809007367961864</v>
+        <v>0.8861484385177248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>803.9957439423349</v>
+        <v>914.6048496477139</v>
       </c>
       <c r="R4">
-        <v>803.9957439423349</v>
+        <v>8231.443646829426</v>
       </c>
       <c r="S4">
-        <v>0.3556934782089118</v>
+        <v>0.3489708377714635</v>
       </c>
       <c r="T4">
-        <v>0.3556934782089118</v>
+        <v>0.3489708377714635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.774372558241177</v>
+        <v>0.8273623333333333</v>
       </c>
       <c r="H5">
-        <v>0.774372558241177</v>
+        <v>2.482087</v>
       </c>
       <c r="I5">
-        <v>0.1190992632038136</v>
+        <v>0.1138515614822752</v>
       </c>
       <c r="J5">
-        <v>0.1190992632038136</v>
+        <v>0.1138515614822752</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>81.91372592849609</v>
+        <v>96.83826274766032</v>
       </c>
       <c r="R5">
-        <v>81.91372592849609</v>
+        <v>871.544364728943</v>
       </c>
       <c r="S5">
-        <v>0.03623921930940972</v>
+        <v>0.03694899463128885</v>
       </c>
       <c r="T5">
-        <v>0.03623921930940972</v>
+        <v>0.03694899463128885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.774372558241177</v>
+        <v>0.8273623333333333</v>
       </c>
       <c r="H6">
-        <v>0.774372558241177</v>
+        <v>2.482087</v>
       </c>
       <c r="I6">
-        <v>0.1190992632038136</v>
+        <v>0.1138515614822752</v>
       </c>
       <c r="J6">
-        <v>0.1190992632038136</v>
+        <v>0.1138515614822752</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>78.59205116267852</v>
+        <v>84.04349670819377</v>
       </c>
       <c r="R6">
-        <v>78.59205116267852</v>
+        <v>756.391470373744</v>
       </c>
       <c r="S6">
-        <v>0.03476968659131467</v>
+        <v>0.03206710468110727</v>
       </c>
       <c r="T6">
-        <v>0.03476968659131467</v>
+        <v>0.03206710468110726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.774372558241177</v>
+        <v>0.8273623333333333</v>
       </c>
       <c r="H7">
-        <v>0.774372558241177</v>
+        <v>2.482087</v>
       </c>
       <c r="I7">
-        <v>0.1190992632038136</v>
+        <v>0.1138515614822752</v>
       </c>
       <c r="J7">
-        <v>0.1190992632038136</v>
+        <v>0.1138515614822752</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>108.7015786486837</v>
+        <v>117.5076158186684</v>
       </c>
       <c r="R7">
-        <v>108.7015786486837</v>
+        <v>1057.568542368016</v>
       </c>
       <c r="S7">
-        <v>0.04809035730308917</v>
+        <v>0.04483546216987906</v>
       </c>
       <c r="T7">
-        <v>0.04809035730308917</v>
+        <v>0.04483546216987905</v>
       </c>
     </row>
   </sheetData>
